--- a/data/trans_bre/P41C_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P41C_R-Estudios-trans_bre.xlsx
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.962628520380008</v>
+        <v>7.870296905864831</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
     </row>
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>-0.8889618488575348</v>
+        <v>-0.8889618488575342</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.2396422296288507</v>
+        <v>-0.2396422296288506</v>
       </c>
     </row>
     <row r="8">
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.544516090273296</v>
+        <v>-3.387867959227431</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.621019867933626</v>
+        <v>-0.6305123850436191</v>
       </c>
     </row>
     <row r="9">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.090098981733121</v>
+        <v>1.068555935340544</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.5588423459582367</v>
+        <v>0.4471581721891494</v>
       </c>
     </row>
     <row r="10">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.127840572275453</v>
+        <v>-6.385305600501893</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.5628812605445968</v>
+        <v>-0.5937506156463996</v>
       </c>
     </row>
     <row r="12">
@@ -670,10 +670,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.236888055123051</v>
+        <v>6.475717595201151</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>1.837199071952665</v>
+        <v>2.015512883039292</v>
       </c>
     </row>
     <row r="13">
@@ -688,10 +688,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>-0.004627758285714878</v>
+        <v>-0.004627758285715572</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.001125617682427181</v>
+        <v>-0.001125617682427349</v>
       </c>
     </row>
     <row r="14">
@@ -702,10 +702,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.159088546996008</v>
+        <v>-2.55589395811278</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3990062316926866</v>
+        <v>-0.4534375011314781</v>
       </c>
     </row>
     <row r="15">
@@ -716,10 +716,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.133037281254479</v>
+        <v>1.835862518784426</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.7997248043263374</v>
+        <v>0.6324198132409585</v>
       </c>
     </row>
     <row r="16">
